--- a/GM-Stuff/Maps/City/City_Map_points_of_interest.xlsx
+++ b/GM-Stuff/Maps/City/City_Map_points_of_interest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\GitHub\City_large_prepopulated\GM-Stuff\Maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\GitHub\City_large_prepopulated\GM-Stuff\Maps\City\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B1088F-8FAA-4114-ADE3-0E00AE1EF4D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DE2D7B-FC5C-44E4-8A1F-76182A0D935A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>POI</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Player4</t>
-  </si>
-  <si>
-    <t>""</t>
   </si>
   <si>
     <t>Note to Self: C 72, 22</t>
@@ -691,6 +688,15 @@
   </si>
   <si>
     <t>Entrance to the Prison Vault.</t>
+  </si>
+  <si>
+    <t>Spawnpoint of Player2, when Spawnpoint is not set by GM</t>
+  </si>
+  <si>
+    <t>Spawnpoint of Player3, when Spawnpoint is not set by GM</t>
+  </si>
+  <si>
+    <t>Spawnpoint of Player4, when Spawnpoint is not set by GM</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -784,32 +790,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,44 +1123,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="138.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1138,408 +1168,408 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>39</v>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>10</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
+      <c r="B20" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>11</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>12</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>13</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>20</v>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>14</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>21</v>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>15</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>22</v>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>16</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>17</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>24</v>
+      <c r="B27" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>18</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>37</v>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>19</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>25</v>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>20</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>26</v>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>21</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>27</v>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>22</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>28</v>
+      <c r="B32" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>23</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>31</v>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>24</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>32</v>
+      <c r="B34" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>25</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>26</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>27</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>28</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>29</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>40</v>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>30</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>31</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>44</v>
+      <c r="B41" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>32</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>45</v>
+      <c r="B42" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>33</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>46</v>
+      <c r="B43" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>34</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>35</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
+      <c r="B45" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>36</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>49</v>
+      <c r="B46" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>37</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>50</v>
+      <c r="B47" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>38</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>47</v>
+      <c r="B48" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>39</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>51</v>
+      <c r="B49" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>40</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>52</v>
+      <c r="B50" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>41</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>53</v>
+      <c r="B51" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>42</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>54</v>
+      <c r="B52" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>43</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>55</v>
+      <c r="B53" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>44</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
+      <c r="B54" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>45</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>56</v>
+      <c r="B55" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1547,95 +1577,95 @@
         <v>46</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>47</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>47</v>
+      <c r="B57" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>48</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>58</v>
+      <c r="B58" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>49</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>50</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>51</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
+      <c r="B61" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>52</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>62</v>
+      <c r="B62" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>53</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>63</v>
+      <c r="B63" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>54</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>64</v>
+      <c r="B64" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>55</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>65</v>
+      <c r="B65" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>56</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>66</v>
+      <c r="B66" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>57</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>67</v>
+      <c r="B67" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1644,6 +1674,9 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="75" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="2" max="66" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/GM-Stuff/Maps/City/City_Map_points_of_interest.xlsx
+++ b/GM-Stuff/Maps/City/City_Map_points_of_interest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Documents\GitHub\City_large_prepopulated\GM-Stuff\Maps\City\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DE2D7B-FC5C-44E4-8A1F-76182A0D935A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240A07A9-E9FB-4ADC-8722-8B8FD04A1950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="4650" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Lizard Camp.</t>
   </si>
   <si>
-    <t>Hidden Entrance to the Sewers</t>
-  </si>
-  <si>
     <t>Small Crop area with a well</t>
   </si>
   <si>
@@ -697,6 +694,9 @@
   </si>
   <si>
     <t>Spawnpoint of Player4, when Spawnpoint is not set by GM</t>
+  </si>
+  <si>
+    <t>Hidden Entrance to the Sewers (Sewers 4)</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10"/>
     </row>
@@ -1169,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1185,31 +1185,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.35">
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.35">
@@ -1249,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1297,7 +1297,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1313,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -1321,7 +1321,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -1329,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -1337,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1353,7 +1353,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1361,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1369,7 +1369,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1377,7 +1377,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1385,7 +1385,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -1393,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -1401,7 +1401,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1409,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
@@ -1417,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
@@ -1425,7 +1425,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
@@ -1433,7 +1433,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.35">
@@ -1441,7 +1441,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1449,7 +1449,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="42.5" x14ac:dyDescent="0.35">
@@ -1457,7 +1457,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1465,7 +1465,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1473,7 +1473,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1489,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1497,7 +1497,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1505,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1513,7 +1513,7 @@
         <v>38</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1529,7 +1529,7 @@
         <v>40</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1537,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -1545,7 +1545,7 @@
         <v>42</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1553,7 +1553,7 @@
         <v>43</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -1569,7 +1569,7 @@
         <v>45</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1577,7 +1577,7 @@
         <v>46</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -1585,7 +1585,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -1593,7 +1593,7 @@
         <v>48</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -1601,7 +1601,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1609,7 +1609,7 @@
         <v>50</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1617,7 +1617,7 @@
         <v>51</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -1625,7 +1625,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -1633,7 +1633,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -1641,7 +1641,7 @@
         <v>54</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -1649,7 +1649,7 @@
         <v>55</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -1657,7 +1657,7 @@
         <v>56</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -1665,7 +1665,7 @@
         <v>57</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
